--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_14.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4209 +505,4999 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731369838.867446</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731369839.1345253</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369838.867446.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369839.1345253.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731369839.3486538</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731369839.8521652</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369839.3486538.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369839.8521652.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.31</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731369840.316329</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731369840.808742</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369840.316329.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369840.808742.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.69</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.17</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731369841.534165</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731369841.9558184</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369841.534165.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369841.9558184.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.09</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.39</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731369842.120011</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731369842.2223542</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369842.120011.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731369842.2223542.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.33</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731369842.838293</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731369842.838293.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731369842.838293.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.04</v>
       </c>
-      <c r="J8" t="n">
-        <v>283.04</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.7700000000000387</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731369845.0781002</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731369845.2316613</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369845.0781002.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369845.2316613.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731369845.392003</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731369845.787908</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369845.392003.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369845.787908.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.04</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.31</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731369846.0686297</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731369846.4677298</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369846.0686297.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369846.4677298.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.69</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.17</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731369847.1121252</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731369847.4740212</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369847.1121252.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369847.4740212.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.09</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>283.39</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731369847.612686</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731369847.7044406</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369847.612686.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369847.7044406.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>283.65</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.33</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731369848.3050911</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731369850.3455698</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369848.3050911.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369850.3455698.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283.04</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>284.35</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.310000000000002</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731369851.1773918</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731369851.9816332</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369851.1773918.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369851.9816332.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.68</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>283.96</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731369852.3194497</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731369852.7500136</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369852.3194497.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369852.7500136.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>284.29</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>283.96</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3300000000000409</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731369853.553555</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731369854.0878975</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369853.553555.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369854.0878975.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>283.92</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>284.16</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731369855.176165</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731369856.4334908</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369855.176165.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731369856.4334908.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>283.84</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>283.82</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731369856.571042</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731369856.571042.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731369856.571042.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>283.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>283.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.589999999999975</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731369858.1347952</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731369858.6908638</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369858.1347952.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369858.6908638.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>131.33</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>131.09</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731369859.1692371</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731369859.8617103</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369859.1692371.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369859.8617103.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>131.18</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3300000000000125</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731369861.2684252</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731369862.4359848</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369861.2684252.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369862.4359848.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>131.19</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>131.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731369863.0006852</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731369864.4829519</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369863.0006852.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731369864.4829519.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>131.09</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>130.87</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731369865.7402809</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731369866.2293177</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369865.7402809.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369866.2293177.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6462.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6469.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731369866.4536548</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731369867.2016027</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369866.4536548.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369867.2016027.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6492</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6494</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731369868.3165941</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731369868.4859083</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369868.3165941.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369868.4859083.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6527.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6510</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>17.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731369869.2587767</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731369869.7627969</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369869.2587767.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731369869.7627969.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6492.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6493</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731369870.135207</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731369870.135207.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731369870.135207.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J28" t="n">
-        <v>6466.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731369871.00725</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731369872.7393265</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369871.00725.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369872.7393265.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>502.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>502.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731369873.0098052</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731369874.0722187</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369873.0098052.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369874.0722187.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>503.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>503.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731369874.3231282</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731369874.8689253</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369874.3231282.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369874.8689253.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>502.55</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>504.1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.550000000000011</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731369875.0155969</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731369875.8690329</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369875.0155969.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369875.8690329.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>504.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>503.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.099999999999966</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731369875.9988027</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731369877.8915508</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369875.9988027.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731369877.8915508.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>503.05</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>501.9</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.150000000000034</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731369879.3752599</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731369880.8950975</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369879.3752599.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369880.8950975.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>225.95</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>225.62</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3299999999999841</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731369882.5191965</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731369882.8474221</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369882.5191965.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369882.8474221.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>225.29</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>225.37</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731369882.9266655</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731369884.451842</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369882.9266655.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731369884.451842.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>224.87</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>224.68</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731369885.0069358</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731369885.594079</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369885.0069358.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369885.594079.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1059</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1063.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731369886.1166337</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731369886.6153684</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369886.1166337.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369886.6153684.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1061.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731369886.95593</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731369888.4752414</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369886.95593.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369888.4752414.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1063</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1065.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731369889.0087726</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731369890.5625684</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369889.0087726.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369890.5625684.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1062.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1060.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731369891.1100595</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731369891.2199728</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369891.1100595.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731369891.2199728.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1057.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1059.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731369892.6350234</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731369892.8801181</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369892.6350234.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369892.8801181.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.213</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.192</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.02099999999999902</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731369894.0237937</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731369894.3296773</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369894.0237937.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369894.3296773.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>12.186</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>12.197</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731369895.261763</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731369896.3126006</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369895.261763.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731369896.3126006.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.209</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.195</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731369896.9990706</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731369896.9990706.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731369896.9990706.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.189</v>
       </c>
-      <c r="J45" t="n">
-        <v>12.189</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.1010000000000009</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731369899.6469653</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731369901.0732257</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369899.6469653.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369901.0732257.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>127.08</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>127.16</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731369901.2876632</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731369901.93217</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369901.2876632.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369901.93217.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>127.18</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>127.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731369903.130453</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731369903.2684643</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369903.130453.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731369903.2684643.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>127.58</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>127.38</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731369903.583871</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731369903.583871.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731369903.583871.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>127.3</v>
       </c>
-      <c r="J49" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>126.16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1.140000000000001</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731369907.0552883</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731369907.6817305</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369907.0552883.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369907.6817305.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>165.36</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>165.1</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.2600000000000193</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731369908.9108567</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731369910.5387566</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369908.9108567.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731369910.5387566.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>165.36</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>165.06</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731369910.6517363</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731369910.6517363.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731369910.6517363.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>165.02</v>
       </c>
-      <c r="J52" t="n">
-        <v>165.02</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
+      <c r="L52" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8600000000000136</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731369913.9298246</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731369914.1572456</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369913.9298246.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369914.1572456.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>50.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.38</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731369914.2468555</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731369914.3200011</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369914.2468555.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369914.3200011.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.355</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>50.39</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731369914.6910162</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731369915.3395176</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369914.6910162.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731369915.3395176.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>50.42</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>50.495</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.07499999999999574</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731369916.9429955</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731369916.9429955.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731369916.9429955.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>50.475</v>
       </c>
-      <c r="J56" t="n">
-        <v>50.475</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.3350000000000009</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731369919.7763798</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731369920.0313046</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369919.7763798.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369920.0313046.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1409</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731369920.2131464</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731369920.446799</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369920.2131464.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369920.446799.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1405.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731369920.8087728</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731369922.953647</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369920.8087728.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369922.953647.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1410</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731369922.9686072</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731369923.1107893</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369922.9686072.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731369923.1107893.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1408.2</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1408.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731369923.6480632</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731369923.6480632.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731369923.6480632.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J61" t="n">
-        <v>1406.2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>1401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731369925.7992811</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731369927.1793516</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369925.7992811.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369927.1793516.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>59.75</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>59.73</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731369927.9841418</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731369928.3151968</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369927.9841418.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369928.3151968.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>59.81</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>59.71</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731369928.9155183</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731369929.5538902</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369928.9155183.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369929.5538902.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>59.71</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>59.72</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731369930.2293153</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731369930.4288456</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369930.2293153.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369930.4288456.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>59.75</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>59.68</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731369930.7253287</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731369930.768872</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369930.7253287.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369930.768872.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>59.71</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.68</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731369930.8667388</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731369932.3811405</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369930.8667388.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731369932.3811405.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.64</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.57</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731369934.0728064</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731369934.5247312</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369934.0728064.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369934.5247312.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>101.05</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>101.29</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731369934.822025</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731369936.4055364</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369934.822025.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369936.4055364.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>101.58</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>101.46</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731369936.733825</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731369937.0588892</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369936.733825.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369937.0588892.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>101.71</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>101.69</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731369938.0763419</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731369939.0154188</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369938.0763419.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731369939.0154188.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>101.42</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>101.57</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731369939.1257327</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731369939.1257327.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731369939.1257327.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>101.21</v>
       </c>
-      <c r="J72" t="n">
-        <v>101.21</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731369942.0506248</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731369943.9171197</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369942.0506248.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731369943.9171197.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>57.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>57.21</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731369943.9847999</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731369943.9847999.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731369943.9847999.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>57.12</v>
       </c>
-      <c r="J74" t="n">
-        <v>57.12</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
+      <c r="L74" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.4099999999999966</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731369946.4762478</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731369946.9663582</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369946.4762478.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369946.9663582.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>158.48</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>158.32</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731369948.2990453</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731369948.602546</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369948.2990453.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369948.602546.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>157.88</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>158.3</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731369949.2845843</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731369949.7379477</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369949.2845843.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369949.7379477.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>157.6</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>157.92</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731369950.5697522</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731369951.2847552</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369950.5697522.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731369951.2847552.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>156.92</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>157.2</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731369953.0214155</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731369955.6675453</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369953.0214155.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731369955.6675453.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.3124</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.3103</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.002099999999999991</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731369956.5175672</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731369956.5175672.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731369956.5175672.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.3095</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
+      <c r="L80" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.000199999999999978</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731369958.7202618</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731369959.7750213</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369958.7202618.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369959.7750213.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>20.906</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>20.915</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731369960.9386373</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731369961.5797951</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369960.9386373.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369961.5797951.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>20.823</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>20.893</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731369962.9289186</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731369964.09453</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369962.9289186.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731369964.09453.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>20.818</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>20.768</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.05000000000000071</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731369965.3670177</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731369965.977921</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369965.3670177.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369965.977921.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>692.65</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>693.15</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731369966.3882751</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731369966.8659167</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369966.3882751.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369966.8659167.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>694.1</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>691.95</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>2.149999999999977</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731369967.19379</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731369967.62079</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369967.19379.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369967.62079.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>691.4</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>692.7</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.300000000000068</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731369968.0743725</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731369968.7925696</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369968.0743725.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731369968.7925696.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>694.15</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>693.05</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731369968.890357</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731369968.890357.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731369968.890357.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>691.95</v>
       </c>
-      <c r="J88" t="n">
-        <v>691.95</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
+      <c r="L88" t="n">
+        <v>690.1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-1.850000000000023</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731369970.7314222</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731369971.6495519</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369970.7314222.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369971.6495519.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>158.53</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>158.53</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4700,139 +5505,166 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731369971.9487832</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731369972.7290556</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369971.9487832.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369972.7290556.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>158.89</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>158.45</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731369973.8544407</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731369974.1634517</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369973.8544407.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731369974.1634517.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>158.9</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>158.71</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731369974.646652</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731369974.646652.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731369974.646652.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>158.36</v>
       </c>
-      <c r="J92" t="n">
-        <v>158.36</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
+      <c r="L92" t="n">
+        <v>156.26</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-1.33</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +5678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4875,6 +5707,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4883,13 +5725,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.000000000000057</v>
+        <v>3.410000000000082</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3636363636363688</v>
+        <v>0.3100000000000074</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -4899,13 +5747,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.860000000000014</v>
+        <v>1.089999999999975</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3100000000000023</v>
+        <v>0.1816666666666625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -4923,6 +5777,12 @@
       <c r="D4" t="n">
         <v>0.01999999999999957</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4931,13 +5791,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6">
@@ -4947,13 +5813,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -4963,13 +5835,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5300000000000011</v>
+        <v>0.3800000000000097</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1060000000000002</v>
+        <v>0.07600000000000193</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -4979,13 +5857,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.050000000000068</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.010000000000014</v>
+        <v>0.6400000000000091</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -5003,6 +5887,12 @@
       <c r="D9" t="n">
         <v>1.119999999999982</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5019,6 +5909,12 @@
       <c r="D10" t="n">
         <v>0.3</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5027,13 +5923,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6299999999999955</v>
+        <v>-1.470000000000027</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1574999999999989</v>
+        <v>-0.3675000000000068</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="12">
@@ -5043,13 +5945,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0459999999999976</v>
+        <v>-0.05500000000000327</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0114999999999994</v>
+        <v>-0.01375000000000082</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
@@ -5067,6 +5975,12 @@
       <c r="D13" t="n">
         <v>0.08500000000000796</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5075,13 +5989,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2600000000000051</v>
+        <v>-0.8799999999999955</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06500000000000128</v>
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="15">
@@ -5091,13 +6011,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05999999999998806</v>
+        <v>-0.3949999999999889</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01499999999999702</v>
+        <v>-0.09874999999999723</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
@@ -5115,6 +6041,12 @@
       <c r="D16" t="n">
         <v>0.2150000000000034</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5131,6 +6063,12 @@
       <c r="D17" t="n">
         <v>0.009666666666666638</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5139,13 +6077,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03999999999999204</v>
+        <v>-0.8200000000000216</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01333333333333068</v>
+        <v>-0.2733333333333405</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="19">
@@ -5163,6 +6107,12 @@
       <c r="D19" t="n">
         <v>-0.1466666666666564</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5171,13 +6121,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00999999999999801</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.004999999999999005</v>
+        <v>-0.2099999999999973</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="21">
@@ -5187,13 +6143,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.0009500000000000064</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="22">
@@ -5209,6 +6171,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
